--- a/other/educationPsychology/supplementary/event3_simulation/教育局 心理測量 event_1 teacher (Responses).xlsx
+++ b/other/educationPsychology/supplementary/event3_simulation/教育局 心理測量 event_1 teacher (Responses).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ydnaandy123.github.io\other\educationPsychology\supplementary\event3_simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C6771C-79EE-4F86-BF96-81096C3102E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AA889F-7109-4A7C-A3BE-0D01EEE828A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
